--- a/weekly/week2/week2.xlsx
+++ b/weekly/week2/week2.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="75">
   <si>
     <t>周一</t>
   </si>
@@ -193,15 +193,6 @@
     <t>Embedding API 文档：https://help.aliyun.com/document_detail/2708609.html；</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>)</t>
-  </si>
-  <si>
     <t>1. Embedding 生成脚本；</t>
   </si>
   <si>
@@ -211,7 +202,7 @@
     <t>- 文本 1：“杭电智科专业大二课程”；</t>
   </si>
   <si>
-    <t>余弦相似度计算公式：cosθ = (a・b)/(</t>
+    <t>余弦相似度计算公式：cosθ = (a・b)/(ab)</t>
   </si>
   <si>
     <t>2. 相似度计算结果；</t>
@@ -224,6 +215,9 @@
   </si>
   <si>
     <t>- 文本 3：“华为大模型应用开发岗位要求”；</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>2. 计算向量相似度（用 NumPy 实现余弦相似度）；</t>
@@ -626,7 +620,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -656,6 +650,30 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -696,6 +714,15 @@
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -826,7 +853,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -838,34 +865,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
@@ -950,7 +977,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -966,8 +993,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -976,6 +1003,21 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1289,10 +1331,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1316,589 +1358,597 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" ht="85.5" spans="1:10">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" ht="14.25" spans="1:10">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="5"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" ht="85.5" spans="1:10">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" ht="14.25" spans="1:10">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="5"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
     <row r="4" ht="14.25" spans="1:10">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="5"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
     </row>
     <row r="5" ht="65" customHeight="1" spans="1:10">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="5"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" ht="114" customHeight="1" spans="1:10">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" ht="28.5" spans="1:10">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
     </row>
     <row r="8" ht="36" customHeight="1" spans="1:10">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" ht="99.75" hidden="1" spans="1:10">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" ht="28.5" hidden="1" spans="1:10">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
     </row>
     <row r="10" ht="42.75" customHeight="1" spans="1:10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
     </row>
     <row r="11" ht="28.5" spans="1:10">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
     </row>
     <row r="12" ht="100" customHeight="1" spans="1:10">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
     <row r="13" ht="14.25" hidden="1" spans="1:10">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" ht="85.5" hidden="1" spans="1:10">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" ht="28.5" hidden="1" spans="1:10">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="9"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
     </row>
     <row r="15" ht="42.75" customHeight="1" spans="1:10">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
     </row>
     <row r="16" ht="42.75" spans="1:10">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
     </row>
     <row r="17" ht="230" customHeight="1" spans="1:10">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" ht="28.5" hidden="1" spans="1:10">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="5"/>
       <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" ht="114" hidden="1" spans="1:10">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" ht="28.5" hidden="1" spans="1:10">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="5"/>
       <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" ht="71.25" customHeight="1" spans="1:10">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" ht="57" spans="1:10">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" ht="14.25" spans="1:10">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="5"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" ht="57" spans="1:10">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" ht="14.25" spans="1:10">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="5"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" ht="14.25" spans="1:10">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="5"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" ht="3" customHeight="1" spans="1:10">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="5"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" ht="156.75" hidden="1" spans="1:10">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" ht="28.5" hidden="1" spans="1:10">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="5"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" ht="142.5" customHeight="1" spans="1:10">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H26" s="4" t="s">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:10">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="D27" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="J26" s="4" t="s">
+      <c r="E27" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" ht="71.25" spans="1:10">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" ht="28.5" spans="1:10">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" ht="73" customHeight="1" spans="1:10">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" ht="85.5" spans="1:10">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
+      <c r="D29" s="8"/>
+      <c r="E29" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" ht="14.25" hidden="1" spans="1:10">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" ht="73" customHeight="1" spans="1:10">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+    </row>
+    <row r="31" ht="28.5" hidden="1" spans="1:10">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" ht="14.25" hidden="1" spans="1:10">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" ht="71.25" customHeight="1" spans="1:10">
+      <c r="A32" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" ht="156.75" hidden="1" spans="1:10">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+      <c r="B32" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" ht="71.25" customHeight="1" spans="1:10">
-      <c r="A32" s="3" t="s">
+      <c r="C32" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="D32" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="E32" s="5" t="s">
         <v>69</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-    </row>
-    <row r="33" ht="71.25" spans="1:10">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" ht="28.5" spans="1:10">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" ht="14.25" spans="1:10">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
+      <c r="D34" s="7"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" ht="28.5" spans="1:10">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" ht="57" spans="1:10">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
+      <c r="D35" s="7"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" ht="43.5" spans="1:10">
+      <c r="A36" s="11"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" ht="85.5" spans="1:10">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" ht="228.75" spans="1:10">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
+  <mergeCells count="55">
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A14"/>
@@ -1921,7 +1971,6 @@
     <mergeCell ref="E1:E5"/>
     <mergeCell ref="E15:E19"/>
     <mergeCell ref="E20:E25"/>
-    <mergeCell ref="E26:E31"/>
     <mergeCell ref="F1:F5"/>
     <mergeCell ref="F6:F9"/>
     <mergeCell ref="F10:F14"/>
@@ -1954,7 +2003,6 @@
     <mergeCell ref="J10:J14"/>
     <mergeCell ref="J15:J19"/>
     <mergeCell ref="J20:J25"/>
-    <mergeCell ref="J26:J31"/>
     <mergeCell ref="J32:J36"/>
   </mergeCells>
   <hyperlinks>
